--- a/ICS325_Spring_2019_Final_Project_Evaluation.xlsx
+++ b/ICS325_Spring_2019_Final_Project_Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimEi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4DD90B-4D8F-473E-9DAE-0C7C9D868B0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D6F4B5-0BB3-40B1-A0E2-9171D3717C51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{DE1664FF-DB1E-437F-94A8-4ACE4BD1E998}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="5" xr2:uid="{DE1664FF-DB1E-437F-94A8-4ACE4BD1E998}"/>
   </bookViews>
   <sheets>
     <sheet name="ICS325 Final Project Evaluation" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,16 @@
     <sheet name="Summary Graph" sheetId="5" r:id="rId5"/>
     <sheet name="Peer Evaluation" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -94,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="113">
   <si>
     <t>No</t>
   </si>
@@ -364,9 +370,6 @@
   </si>
   <si>
     <t>Total Capacity for that ART in that PI will also be shown in the first graph</t>
-  </si>
-  <si>
-    <t>ARTs are sorted alphabetically when shown in the 1st graph</t>
   </si>
   <si>
     <t>TEAMS are sorted alphabetically when shown in the 2nd graph</t>
@@ -1300,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F69942-BBCF-478C-AB0B-00CDC61A1F3E}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1397,6 +1400,9 @@
       <c r="D5" s="5">
         <v>4</v>
       </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="31.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
@@ -1459,6 +1465,9 @@
       <c r="D9" s="5">
         <v>3</v>
       </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5">
@@ -1473,6 +1482,9 @@
       <c r="D10" s="5">
         <v>4</v>
       </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5">
@@ -1487,6 +1499,9 @@
       <c r="D11" s="5">
         <v>3</v>
       </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
@@ -1560,6 +1575,9 @@
       <c r="D16" s="16">
         <v>1</v>
       </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5">
@@ -1616,6 +1634,9 @@
       <c r="D20" s="16">
         <v>4</v>
       </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5">
@@ -1630,6 +1651,9 @@
       <c r="D21" s="16">
         <v>4</v>
       </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5">
@@ -1644,6 +1668,9 @@
       <c r="D22" s="16">
         <v>4</v>
       </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5">
@@ -1700,6 +1727,9 @@
       <c r="D26" s="16">
         <v>4</v>
       </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5">
@@ -1714,6 +1744,9 @@
       <c r="D27" s="16">
         <v>4</v>
       </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5">
@@ -1728,6 +1761,9 @@
       <c r="D28" s="16">
         <v>2</v>
       </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5">
@@ -1742,6 +1778,9 @@
       <c r="D29" s="16">
         <v>2</v>
       </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="5">
@@ -1756,6 +1795,9 @@
       <c r="D30" s="16">
         <v>4</v>
       </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="5">
@@ -1770,6 +1812,9 @@
       <c r="D31" s="16">
         <v>4</v>
       </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
       <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -1785,6 +1830,9 @@
       <c r="D32" s="16">
         <v>4</v>
       </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="5">
@@ -1799,6 +1847,9 @@
       <c r="D33" s="16">
         <v>4</v>
       </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="5">
@@ -1813,6 +1864,9 @@
       <c r="D34" s="16">
         <v>4</v>
       </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="5">
@@ -1827,6 +1881,9 @@
       <c r="D35" s="16">
         <v>4</v>
       </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="5">
@@ -1903,6 +1960,9 @@
       <c r="D40" s="28">
         <v>2</v>
       </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="5">
@@ -1968,6 +2028,9 @@
       <c r="D44" s="28">
         <v>2</v>
       </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="5">
@@ -1999,6 +2062,9 @@
       <c r="D46" s="28">
         <v>3</v>
       </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="5">
@@ -2013,6 +2079,9 @@
       <c r="D47" s="28">
         <v>3</v>
       </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="5">
@@ -2031,7 +2100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2044,8 +2113,11 @@
       <c r="D49" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="E49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2058,8 +2130,11 @@
       <c r="D50" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -2072,22 +2147,25 @@
       <c r="D51" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="18" t="s">
-        <v>90</v>
+      <c r="C52" s="18">
+        <v>4</v>
       </c>
       <c r="D52" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -2095,13 +2173,16 @@
         <v>87</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D53" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -2109,13 +2190,16 @@
         <v>87</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -2123,13 +2207,13 @@
         <v>87</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D55" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -2137,13 +2221,13 @@
         <v>87</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D56" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -2151,22 +2235,28 @@
         <v>87</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D57" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="5">
         <v>57</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="30">
         <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E59">
+        <f>SUM(E2:E57)</f>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2428,7 +2518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6F6746-6334-4349-B4C1-BB75E53D7F5F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A11" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
@@ -2479,7 +2569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BA6715-E541-4BE8-9E49-066BEEB6D895}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -2491,7 +2581,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A1" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.45">
@@ -2499,7 +2589,7 @@
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A3" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.45">
@@ -2507,7 +2597,7 @@
     </row>
     <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.45">
       <c r="A5" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
@@ -2516,7 +2606,7 @@
     <row r="7" spans="1:5" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="35"/>
       <c r="B7" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
@@ -2524,24 +2614,24 @@
     </row>
     <row r="8" spans="1:5" ht="45" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="C8" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="D8" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="E8" s="31" t="s">
         <v>101</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
@@ -2557,7 +2647,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
@@ -2573,7 +2663,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
@@ -2589,7 +2679,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" s="46"/>
       <c r="C15" s="46"/>
@@ -2605,7 +2695,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -2621,7 +2711,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
@@ -2637,7 +2727,7 @@
     </row>
     <row r="21" spans="1:5" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -2649,7 +2739,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
